--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>SlNo</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>java session /jbpm practice with rest and email</t>
+  </si>
+  <si>
+    <t>discusssion/learning</t>
+  </si>
+  <si>
+    <t>session with team / jbpm pratice hrprocess/learning collection</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,7 +598,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,10 +657,18 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="10">
+        <v>44411</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>SlNo</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>session with team / jbpm pratice hrprocess/learning collection</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>session with sivaguru and learnt microservices and rest concepts/springframewrk</t>
   </si>
 </sst>
 </file>
@@ -587,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -598,7 +604,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,10 +680,18 @@
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="10">
+        <v>44412</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>SlNo</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>session with sivaguru and learnt microservices and rest concepts/springframewrk</t>
+  </si>
+  <si>
+    <t>learnt annotations &amp; revised core java</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -604,7 +607,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -697,10 +700,18 @@
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
+      <c r="C7" s="10">
+        <v>44413</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>SlNo</t>
   </si>
@@ -59,6 +59,15 @@
   </si>
   <si>
     <t>learnt annotations &amp; revised core java</t>
+  </si>
+  <si>
+    <t>spring mvc/spring framework</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>mvc/jbpm basics</t>
   </si>
 </sst>
 </file>
@@ -596,7 +605,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,7 +616,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -717,19 +726,35 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="10">
+        <v>44414</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="10">
+        <v>44415</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>SlNo</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>mvc/jbpm basics</t>
+  </si>
+  <si>
+    <t>learning/exploring</t>
+  </si>
+  <si>
+    <t>revised oops/explored about bpm,microservices,maven</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -760,10 +766,18 @@
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="10">
+        <v>44417</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>SlNo</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>revised oops/explored about bpm,microservices,maven</t>
+  </si>
+  <si>
+    <t>Hibernaate framework/sql queries</t>
+  </si>
+  <si>
+    <t>exploring</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -783,10 +789,18 @@
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="10">
+        <v>44418</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>SlNo</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>exploring</t>
+  </si>
+  <si>
+    <t>vms projct and cms project discussion/sql basics</t>
+  </si>
+  <si>
+    <t>VMS/cms</t>
   </si>
 </sst>
 </file>
@@ -617,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -628,7 +634,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,10 +812,18 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="10">
+        <v>44419</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>SlNo</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>VMS/cms</t>
+  </si>
+  <si>
+    <t>cms/jsp</t>
+  </si>
+  <si>
+    <t>cms discussion with team/jsp exploring/springboot revision</t>
   </si>
 </sst>
 </file>
@@ -623,7 +629,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -634,7 +640,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -829,10 +835,18 @@
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="10">
+        <v>44420</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>SlNo</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>cms discussion with team/jsp exploring/springboot revision</t>
+  </si>
+  <si>
+    <t>cms discussion with team/VMS revision</t>
+  </si>
+  <si>
+    <t>cms discussion/java&amp;spring revision</t>
+  </si>
+  <si>
+    <t>jbpm &amp; java revision</t>
   </si>
 </sst>
 </file>
@@ -629,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,7 +649,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -852,28 +861,52 @@
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="10">
+        <v>44421</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="10">
+        <v>44422</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="10">
+        <v>44424</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>SlNo</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>jbpm &amp; java revision</t>
+  </si>
+  <si>
+    <t>cms/learning</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,7 +652,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -912,10 +915,18 @@
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="10">
+        <v>44425</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>SlNo</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>cms/learning</t>
+  </si>
+  <si>
+    <t>office visit/jbpm</t>
+  </si>
+  <si>
+    <t>office visit/jbpm interview que revision</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,7 +658,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -932,10 +938,18 @@
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="10">
+        <v>44426</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>SlNo</t>
   </si>
@@ -124,7 +124,13 @@
     <t>Jsp / servlet learning /vms discussion</t>
   </si>
   <si>
-    <t>JSP revsion</t>
+    <t xml:space="preserve">jbpm flow/content </t>
+  </si>
+  <si>
+    <t>JBPM flow discussion with team &amp; content discussion\drools</t>
+  </si>
+  <si>
+    <t>JSP revision</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,7 +884,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -895,7 +901,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -1011,7 +1017,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1021,10 +1027,18 @@
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="10">
+        <v>44431</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>SlNo</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>JSP revision</t>
+  </si>
+  <si>
+    <t>Core java/TAM use case</t>
+  </si>
+  <si>
+    <t>java 8 features learnt with team/Tam use case discussion</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1044,10 +1050,18 @@
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="10">
+        <v>44432</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>SlNo</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>java 8 features learnt with team/Tam use case discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java </t>
+  </si>
+  <si>
+    <t>Threading concept with team</t>
   </si>
 </sst>
 </file>
@@ -674,7 +680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,7 +691,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,10 +1073,18 @@
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="10">
+        <v>44433</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>SlNo</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Threading concept with team</t>
+  </si>
+  <si>
+    <t>java session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java session /jbpm practice </t>
   </si>
 </sst>
 </file>
@@ -680,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,7 +697,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1090,10 +1096,18 @@
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="10">
+        <v>44435</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>SlNo</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">java session /jbpm practice </t>
+  </si>
+  <si>
+    <t>Javac larification session/file handling exploring</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -697,7 +700,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1113,10 +1116,18 @@
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="10">
+        <v>44438</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2">

--- a/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
+++ b/Saranya/Timesheet/Schwall_TraineeName_Timesheet_Aug_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>SlNo</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Javac larification session/file handling exploring</t>
+  </si>
+  <si>
+    <t>jbpm interview que revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jbpm  </t>
   </si>
 </sst>
 </file>
@@ -689,7 +695,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,7 +706,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1133,10 +1139,18 @@
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="10">
+        <v>44439</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2">
